--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="105" windowWidth="16410" windowHeight="12450" tabRatio="822" activeTab="5"/>
+    <workbookView xWindow="330" yWindow="105" windowWidth="15660" windowHeight="11610" tabRatio="822" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" r:id="rId1"/>
@@ -871,10 +871,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>FB1010301</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>FB1999901</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -985,6 +981,10 @@
   </si>
   <si>
     <t>/client</t>
+  </si>
+  <si>
+    <t>FB1999904</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1720,6 +1720,117 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1756,160 +1867,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1921,9 +1960,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1951,41 +1987,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1996,15 +2023,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2014,22 +2032,235 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,242 +2272,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6463,57 +6463,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="171" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="s">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="161" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="134" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="164">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="139"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6521,53 +6521,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="171" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="137" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="139"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6575,45 +6575,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="171" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="139"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -6650,1030 +6650,1186 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="167" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="142"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="167" t="s">
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="169"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="169"/>
-      <c r="AD7" s="169"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="167" t="s">
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="169"/>
-      <c r="AH7" s="169"/>
-      <c r="AI7" s="168"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="141"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="116">
         <v>1</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="149">
+      <c r="C8" s="184"/>
+      <c r="D8" s="185">
         <v>43718</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="159"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="157" t="s">
+      <c r="H8" s="189"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
+      <c r="AF8" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="156"/>
+      <c r="AG8" s="191"/>
+      <c r="AH8" s="191"/>
+      <c r="AI8" s="192"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="117"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="181"/>
+      <c r="AA9" s="181"/>
+      <c r="AB9" s="181"/>
+      <c r="AC9" s="181"/>
+      <c r="AD9" s="181"/>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="178"/>
+      <c r="AH9" s="178"/>
+      <c r="AI9" s="179"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="117"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="142"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="181"/>
+      <c r="AA10" s="181"/>
+      <c r="AB10" s="181"/>
+      <c r="AC10" s="181"/>
+      <c r="AD10" s="181"/>
+      <c r="AE10" s="182"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="178"/>
+      <c r="AH10" s="178"/>
+      <c r="AI10" s="179"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="117"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="144"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="142"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="181"/>
+      <c r="T11" s="181"/>
+      <c r="U11" s="181"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="181"/>
+      <c r="AA11" s="181"/>
+      <c r="AB11" s="181"/>
+      <c r="AC11" s="181"/>
+      <c r="AD11" s="181"/>
+      <c r="AE11" s="182"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="178"/>
+      <c r="AH11" s="178"/>
+      <c r="AI11" s="179"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="117"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="142"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="180"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="181"/>
+      <c r="T12" s="181"/>
+      <c r="U12" s="181"/>
+      <c r="V12" s="181"/>
+      <c r="W12" s="181"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="181"/>
+      <c r="AD12" s="181"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="178"/>
+      <c r="AH12" s="178"/>
+      <c r="AI12" s="179"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="117"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="142"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="180"/>
+      <c r="R13" s="181"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
+      <c r="V13" s="181"/>
+      <c r="W13" s="181"/>
+      <c r="X13" s="181"/>
+      <c r="Y13" s="181"/>
+      <c r="Z13" s="181"/>
+      <c r="AA13" s="181"/>
+      <c r="AB13" s="181"/>
+      <c r="AC13" s="181"/>
+      <c r="AD13" s="181"/>
+      <c r="AE13" s="182"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="178"/>
+      <c r="AH13" s="178"/>
+      <c r="AI13" s="179"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="117"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="181"/>
+      <c r="S14" s="181"/>
+      <c r="T14" s="181"/>
+      <c r="U14" s="181"/>
+      <c r="V14" s="181"/>
+      <c r="W14" s="181"/>
+      <c r="X14" s="181"/>
+      <c r="Y14" s="181"/>
+      <c r="Z14" s="181"/>
+      <c r="AA14" s="181"/>
+      <c r="AB14" s="181"/>
+      <c r="AC14" s="181"/>
+      <c r="AD14" s="181"/>
+      <c r="AE14" s="182"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="178"/>
+      <c r="AH14" s="178"/>
+      <c r="AI14" s="179"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="117"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="181"/>
+      <c r="V15" s="181"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="181"/>
+      <c r="AB15" s="181"/>
+      <c r="AC15" s="181"/>
+      <c r="AD15" s="181"/>
+      <c r="AE15" s="182"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="178"/>
+      <c r="AH15" s="178"/>
+      <c r="AI15" s="179"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="117"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
-      <c r="Z16" s="144"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="142"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="178"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="179"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="181"/>
+      <c r="S16" s="181"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="181"/>
+      <c r="V16" s="181"/>
+      <c r="W16" s="181"/>
+      <c r="X16" s="181"/>
+      <c r="Y16" s="181"/>
+      <c r="Z16" s="181"/>
+      <c r="AA16" s="181"/>
+      <c r="AB16" s="181"/>
+      <c r="AC16" s="181"/>
+      <c r="AD16" s="181"/>
+      <c r="AE16" s="182"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="178"/>
+      <c r="AH16" s="178"/>
+      <c r="AI16" s="179"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="117"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="178"/>
+      <c r="O17" s="178"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="181"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="181"/>
+      <c r="V17" s="181"/>
+      <c r="W17" s="181"/>
+      <c r="X17" s="181"/>
+      <c r="Y17" s="181"/>
+      <c r="Z17" s="181"/>
+      <c r="AA17" s="181"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="181"/>
+      <c r="AD17" s="181"/>
+      <c r="AE17" s="182"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="178"/>
+      <c r="AH17" s="178"/>
+      <c r="AI17" s="179"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="117"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="142"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="181"/>
+      <c r="AA18" s="181"/>
+      <c r="AB18" s="181"/>
+      <c r="AC18" s="181"/>
+      <c r="AD18" s="181"/>
+      <c r="AE18" s="182"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="178"/>
+      <c r="AH18" s="178"/>
+      <c r="AI18" s="179"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="117"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="142"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="181"/>
+      <c r="V19" s="181"/>
+      <c r="W19" s="181"/>
+      <c r="X19" s="181"/>
+      <c r="Y19" s="181"/>
+      <c r="Z19" s="181"/>
+      <c r="AA19" s="181"/>
+      <c r="AB19" s="181"/>
+      <c r="AC19" s="181"/>
+      <c r="AD19" s="181"/>
+      <c r="AE19" s="182"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="178"/>
+      <c r="AH19" s="178"/>
+      <c r="AI19" s="179"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="117"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="142"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="179"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="181"/>
+      <c r="V20" s="181"/>
+      <c r="W20" s="181"/>
+      <c r="X20" s="181"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="181"/>
+      <c r="AA20" s="181"/>
+      <c r="AB20" s="181"/>
+      <c r="AC20" s="181"/>
+      <c r="AD20" s="181"/>
+      <c r="AE20" s="182"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="178"/>
+      <c r="AH20" s="178"/>
+      <c r="AI20" s="179"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="117"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="142"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="181"/>
+      <c r="S21" s="181"/>
+      <c r="T21" s="181"/>
+      <c r="U21" s="181"/>
+      <c r="V21" s="181"/>
+      <c r="W21" s="181"/>
+      <c r="X21" s="181"/>
+      <c r="Y21" s="181"/>
+      <c r="Z21" s="181"/>
+      <c r="AA21" s="181"/>
+      <c r="AB21" s="181"/>
+      <c r="AC21" s="181"/>
+      <c r="AD21" s="181"/>
+      <c r="AE21" s="182"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="178"/>
+      <c r="AH21" s="178"/>
+      <c r="AI21" s="179"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="117"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="144"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="142"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="181"/>
+      <c r="S22" s="181"/>
+      <c r="T22" s="181"/>
+      <c r="U22" s="181"/>
+      <c r="V22" s="181"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="181"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="181"/>
+      <c r="AD22" s="181"/>
+      <c r="AE22" s="182"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="178"/>
+      <c r="AH22" s="178"/>
+      <c r="AI22" s="179"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="117"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="142"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="179"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+      <c r="AB23" s="181"/>
+      <c r="AC23" s="181"/>
+      <c r="AD23" s="181"/>
+      <c r="AE23" s="182"/>
+      <c r="AF23" s="177"/>
+      <c r="AG23" s="178"/>
+      <c r="AH23" s="178"/>
+      <c r="AI23" s="179"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="117"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="142"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="179"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="181"/>
+      <c r="V24" s="181"/>
+      <c r="W24" s="181"/>
+      <c r="X24" s="181"/>
+      <c r="Y24" s="181"/>
+      <c r="Z24" s="181"/>
+      <c r="AA24" s="181"/>
+      <c r="AB24" s="181"/>
+      <c r="AC24" s="181"/>
+      <c r="AD24" s="181"/>
+      <c r="AE24" s="182"/>
+      <c r="AF24" s="177"/>
+      <c r="AG24" s="178"/>
+      <c r="AH24" s="178"/>
+      <c r="AI24" s="179"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="117"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="179"/>
+      <c r="Q25" s="180"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="181"/>
+      <c r="V25" s="181"/>
+      <c r="W25" s="181"/>
+      <c r="X25" s="181"/>
+      <c r="Y25" s="181"/>
+      <c r="Z25" s="181"/>
+      <c r="AA25" s="181"/>
+      <c r="AB25" s="181"/>
+      <c r="AC25" s="181"/>
+      <c r="AD25" s="181"/>
+      <c r="AE25" s="182"/>
+      <c r="AF25" s="177"/>
+      <c r="AG25" s="178"/>
+      <c r="AH25" s="178"/>
+      <c r="AI25" s="179"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="117"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="142"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="181"/>
+      <c r="V26" s="181"/>
+      <c r="W26" s="181"/>
+      <c r="X26" s="181"/>
+      <c r="Y26" s="181"/>
+      <c r="Z26" s="181"/>
+      <c r="AA26" s="181"/>
+      <c r="AB26" s="181"/>
+      <c r="AC26" s="181"/>
+      <c r="AD26" s="181"/>
+      <c r="AE26" s="182"/>
+      <c r="AF26" s="177"/>
+      <c r="AG26" s="178"/>
+      <c r="AH26" s="178"/>
+      <c r="AI26" s="179"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="117"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="142"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="179"/>
+      <c r="Q27" s="180"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="181"/>
+      <c r="AD27" s="181"/>
+      <c r="AE27" s="182"/>
+      <c r="AF27" s="177"/>
+      <c r="AG27" s="178"/>
+      <c r="AH27" s="178"/>
+      <c r="AI27" s="179"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="117"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="142"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="178"/>
+      <c r="P28" s="179"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="181"/>
+      <c r="AA28" s="181"/>
+      <c r="AB28" s="181"/>
+      <c r="AC28" s="181"/>
+      <c r="AD28" s="181"/>
+      <c r="AE28" s="182"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="178"/>
+      <c r="AH28" s="178"/>
+      <c r="AI28" s="179"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="117"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="144"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="141"/>
-      <c r="AH29" s="141"/>
-      <c r="AI29" s="142"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="179"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="181"/>
+      <c r="AB29" s="181"/>
+      <c r="AC29" s="181"/>
+      <c r="AD29" s="181"/>
+      <c r="AE29" s="182"/>
+      <c r="AF29" s="177"/>
+      <c r="AG29" s="178"/>
+      <c r="AH29" s="178"/>
+      <c r="AI29" s="179"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="117"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="141"/>
-      <c r="AI30" s="142"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="180"/>
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="181"/>
+      <c r="U30" s="181"/>
+      <c r="V30" s="181"/>
+      <c r="W30" s="181"/>
+      <c r="X30" s="181"/>
+      <c r="Y30" s="181"/>
+      <c r="Z30" s="181"/>
+      <c r="AA30" s="181"/>
+      <c r="AB30" s="181"/>
+      <c r="AC30" s="181"/>
+      <c r="AD30" s="181"/>
+      <c r="AE30" s="182"/>
+      <c r="AF30" s="177"/>
+      <c r="AG30" s="178"/>
+      <c r="AH30" s="178"/>
+      <c r="AI30" s="179"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="117"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="144"/>
-      <c r="U31" s="144"/>
-      <c r="V31" s="144"/>
-      <c r="W31" s="144"/>
-      <c r="X31" s="144"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="144"/>
-      <c r="AA31" s="144"/>
-      <c r="AB31" s="144"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="144"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="141"/>
-      <c r="AH31" s="141"/>
-      <c r="AI31" s="142"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="178"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
+      <c r="O31" s="178"/>
+      <c r="P31" s="179"/>
+      <c r="Q31" s="180"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
+      <c r="Y31" s="181"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="181"/>
+      <c r="AB31" s="181"/>
+      <c r="AC31" s="181"/>
+      <c r="AD31" s="181"/>
+      <c r="AE31" s="182"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="178"/>
+      <c r="AH31" s="178"/>
+      <c r="AI31" s="179"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="117"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="144"/>
-      <c r="T32" s="144"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="144"/>
-      <c r="X32" s="144"/>
-      <c r="Y32" s="144"/>
-      <c r="Z32" s="144"/>
-      <c r="AA32" s="144"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="144"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141"/>
-      <c r="AI32" s="142"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="178"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="181"/>
+      <c r="V32" s="181"/>
+      <c r="W32" s="181"/>
+      <c r="X32" s="181"/>
+      <c r="Y32" s="181"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="181"/>
+      <c r="AB32" s="181"/>
+      <c r="AC32" s="181"/>
+      <c r="AD32" s="181"/>
+      <c r="AE32" s="182"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="178"/>
+      <c r="AH32" s="178"/>
+      <c r="AI32" s="179"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="117"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="142"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="178"/>
+      <c r="P33" s="179"/>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="181"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="181"/>
+      <c r="AE33" s="182"/>
+      <c r="AF33" s="177"/>
+      <c r="AG33" s="178"/>
+      <c r="AH33" s="178"/>
+      <c r="AI33" s="179"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7697,162 +7853,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8009,157 +8009,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="161" t="str">
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="211">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="161" t="str">
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="161" t="str">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -9626,14 +9626,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9643,6 +9635,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9671,157 +9671,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="161" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="233">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="224">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="235"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="226"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="161" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="233" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="224" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="235"/>
+      <c r="AH2" s="225"/>
+      <c r="AI2" s="226"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="161" t="str">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="233" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="224" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="235"/>
+      <c r="AH3" s="225"/>
+      <c r="AI3" s="226"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -9977,92 +9977,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="236" t="s">
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="237"/>
-      <c r="O8" s="237"/>
-      <c r="P8" s="237"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="237"/>
-      <c r="S8" s="237"/>
-      <c r="T8" s="237"/>
-      <c r="U8" s="237"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="237"/>
-      <c r="X8" s="237"/>
-      <c r="Y8" s="237"/>
-      <c r="Z8" s="237"/>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="237"/>
-      <c r="AC8" s="237"/>
-      <c r="AD8" s="237"/>
-      <c r="AE8" s="237"/>
-      <c r="AF8" s="237"/>
-      <c r="AG8" s="237"/>
-      <c r="AH8" s="237"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="228"/>
+      <c r="S8" s="228"/>
+      <c r="T8" s="228"/>
+      <c r="U8" s="228"/>
+      <c r="V8" s="228"/>
+      <c r="W8" s="228"/>
+      <c r="X8" s="228"/>
+      <c r="Y8" s="228"/>
+      <c r="Z8" s="228"/>
+      <c r="AA8" s="228"/>
+      <c r="AB8" s="228"/>
+      <c r="AC8" s="228"/>
+      <c r="AD8" s="228"/>
+      <c r="AE8" s="228"/>
+      <c r="AF8" s="228"/>
+      <c r="AG8" s="228"/>
+      <c r="AH8" s="228"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="226" t="s">
+      <c r="D9" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="232" t="s">
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="223" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="232"/>
-      <c r="M9" s="232"/>
-      <c r="N9" s="232"/>
-      <c r="O9" s="232"/>
-      <c r="P9" s="232"/>
-      <c r="Q9" s="232"/>
-      <c r="R9" s="232"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="232"/>
-      <c r="U9" s="232"/>
-      <c r="V9" s="232"/>
-      <c r="W9" s="232"/>
-      <c r="X9" s="232"/>
-      <c r="Y9" s="232"/>
-      <c r="Z9" s="232"/>
-      <c r="AA9" s="232"/>
-      <c r="AB9" s="232"/>
-      <c r="AC9" s="232"/>
-      <c r="AD9" s="232"/>
-      <c r="AE9" s="232"/>
-      <c r="AF9" s="232"/>
-      <c r="AG9" s="232"/>
-      <c r="AH9" s="232"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="223"/>
+      <c r="Q9" s="223"/>
+      <c r="R9" s="223"/>
+      <c r="S9" s="223"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="223"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="223"/>
+      <c r="AA9" s="223"/>
+      <c r="AB9" s="223"/>
+      <c r="AC9" s="223"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="223"/>
+      <c r="AG9" s="223"/>
+      <c r="AH9" s="223"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="223" t="s">
+      <c r="D10" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="225"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="234"/>
       <c r="H10" s="102" t="s">
         <v>78</v>
       </c>
@@ -10097,172 +10097,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="226" t="s">
+      <c r="D11" s="229" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="236" t="s">
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="237"/>
-      <c r="AB11" s="237"/>
-      <c r="AC11" s="237"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="237"/>
-      <c r="AF11" s="237"/>
-      <c r="AG11" s="237"/>
-      <c r="AH11" s="237"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="228"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="228"/>
+      <c r="N11" s="228"/>
+      <c r="O11" s="228"/>
+      <c r="P11" s="228"/>
+      <c r="Q11" s="228"/>
+      <c r="R11" s="228"/>
+      <c r="S11" s="228"/>
+      <c r="T11" s="228"/>
+      <c r="U11" s="228"/>
+      <c r="V11" s="228"/>
+      <c r="W11" s="228"/>
+      <c r="X11" s="228"/>
+      <c r="Y11" s="228"/>
+      <c r="Z11" s="228"/>
+      <c r="AA11" s="228"/>
+      <c r="AB11" s="228"/>
+      <c r="AC11" s="228"/>
+      <c r="AD11" s="228"/>
+      <c r="AE11" s="228"/>
+      <c r="AF11" s="228"/>
+      <c r="AG11" s="228"/>
+      <c r="AH11" s="228"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="226" t="s">
+      <c r="D12" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="232" t="s">
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="223" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="232"/>
-      <c r="V12" s="232"/>
-      <c r="W12" s="232"/>
-      <c r="X12" s="232"/>
-      <c r="Y12" s="232"/>
-      <c r="Z12" s="232"/>
-      <c r="AA12" s="232"/>
-      <c r="AB12" s="232"/>
-      <c r="AC12" s="232"/>
-      <c r="AD12" s="232"/>
-      <c r="AE12" s="232"/>
-      <c r="AF12" s="232"/>
-      <c r="AG12" s="232"/>
-      <c r="AH12" s="232"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="223"/>
+      <c r="O12" s="223"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="223"/>
+      <c r="V12" s="223"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="223"/>
+      <c r="Y12" s="223"/>
+      <c r="Z12" s="223"/>
+      <c r="AA12" s="223"/>
+      <c r="AB12" s="223"/>
+      <c r="AC12" s="223"/>
+      <c r="AD12" s="223"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="223"/>
+      <c r="AG12" s="223"/>
+      <c r="AH12" s="223"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="232" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="232"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="232"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="232"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="232"/>
-      <c r="Q13" s="232"/>
-      <c r="R13" s="232"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="232"/>
-      <c r="U13" s="232"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="232"/>
-      <c r="X13" s="232"/>
-      <c r="Y13" s="232"/>
-      <c r="Z13" s="232"/>
-      <c r="AA13" s="232"/>
-      <c r="AB13" s="232"/>
-      <c r="AC13" s="232"/>
-      <c r="AD13" s="232"/>
-      <c r="AE13" s="232"/>
-      <c r="AF13" s="232"/>
-      <c r="AG13" s="232"/>
-      <c r="AH13" s="232"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="223" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="223"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="223"/>
+      <c r="V13" s="223"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="223"/>
+      <c r="Y13" s="223"/>
+      <c r="Z13" s="223"/>
+      <c r="AA13" s="223"/>
+      <c r="AB13" s="223"/>
+      <c r="AC13" s="223"/>
+      <c r="AD13" s="223"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="223"/>
+      <c r="AG13" s="223"/>
+      <c r="AH13" s="223"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="226" t="s">
+      <c r="D14" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="232" t="s">
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="232"/>
-      <c r="S14" s="232"/>
-      <c r="T14" s="232"/>
-      <c r="U14" s="232"/>
-      <c r="V14" s="232"/>
-      <c r="W14" s="232"/>
-      <c r="X14" s="232"/>
-      <c r="Y14" s="232"/>
-      <c r="Z14" s="232"/>
-      <c r="AA14" s="232"/>
-      <c r="AB14" s="232"/>
-      <c r="AC14" s="232"/>
-      <c r="AD14" s="232"/>
-      <c r="AE14" s="232"/>
-      <c r="AF14" s="232"/>
-      <c r="AG14" s="232"/>
-      <c r="AH14" s="232"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="223"/>
+      <c r="P14" s="223"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="223"/>
+      <c r="S14" s="223"/>
+      <c r="T14" s="223"/>
+      <c r="U14" s="223"/>
+      <c r="V14" s="223"/>
+      <c r="W14" s="223"/>
+      <c r="X14" s="223"/>
+      <c r="Y14" s="223"/>
+      <c r="Z14" s="223"/>
+      <c r="AA14" s="223"/>
+      <c r="AB14" s="223"/>
+      <c r="AC14" s="223"/>
+      <c r="AD14" s="223"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="223"/>
+      <c r="AG14" s="223"/>
+      <c r="AH14" s="223"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="226" t="s">
+      <c r="D15" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="228"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="231"/>
       <c r="H15" s="130" t="s">
         <v>101</v>
       </c>
@@ -10414,30 +10414,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
-      <c r="O19" s="229"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="230"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="230"/>
-      <c r="Y19" s="230"/>
-      <c r="Z19" s="230"/>
-      <c r="AA19" s="230"/>
-      <c r="AB19" s="230"/>
-      <c r="AC19" s="230"/>
-      <c r="AD19" s="230"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="235"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="236"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="236"/>
+      <c r="W19" s="236"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="236"/>
+      <c r="Z19" s="236"/>
+      <c r="AA19" s="236"/>
+      <c r="AB19" s="236"/>
+      <c r="AC19" s="236"/>
+      <c r="AD19" s="236"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -10889,14 +10889,15 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10913,15 +10914,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10950,157 +10950,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="161" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="233">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="224">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="235"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="226"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="161" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="233" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="224" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="235"/>
+      <c r="AH2" s="225"/>
+      <c r="AI2" s="226"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="161" t="str">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="233" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="224" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="235"/>
+      <c r="AH3" s="225"/>
+      <c r="AI3" s="226"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11111,6 +11111,12 @@
     <row r="6" spans="1:35" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11122,12 +11128,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11147,8 +11147,8 @@
   </sheetPr>
   <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11157,163 +11157,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="161" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="233">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="224">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="235"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="226"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="161" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="233" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="224" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="235"/>
+      <c r="AH2" s="225"/>
+      <c r="AI2" s="226"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="161" t="str">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="233" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="224" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="235"/>
+      <c r="AH3" s="225"/>
+      <c r="AI3" s="226"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11431,65 +11431,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="269" t="s">
+      <c r="D8" s="288" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="254" t="s">
+      <c r="E8" s="291" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="260" t="s">
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="297" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="261" t="s">
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="266" t="s">
+      <c r="P8" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="267"/>
-      <c r="S8" s="267"/>
-      <c r="T8" s="267"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="263" t="s">
+      <c r="Q8" s="304"/>
+      <c r="R8" s="304"/>
+      <c r="S8" s="304"/>
+      <c r="T8" s="304"/>
+      <c r="U8" s="305"/>
+      <c r="V8" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
+      <c r="W8" s="300"/>
+      <c r="X8" s="300"/>
+      <c r="Y8" s="300"/>
+      <c r="Z8" s="300"/>
+      <c r="AA8" s="300"/>
+      <c r="AB8" s="300"/>
+      <c r="AC8" s="300"/>
+      <c r="AD8" s="300"/>
+      <c r="AE8" s="300"/>
+      <c r="AF8" s="300"/>
+      <c r="AG8" s="300"/>
+      <c r="AH8" s="300"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="259"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="259"/>
-      <c r="O9" s="262"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="299"/>
       <c r="P9" s="89" t="s">
         <v>46</v>
       </c>
@@ -11502,23 +11502,23 @@
       <c r="S9" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="264" t="s">
+      <c r="T9" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="265"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
+      <c r="U9" s="302"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="300"/>
+      <c r="X9" s="300"/>
+      <c r="Y9" s="300"/>
+      <c r="Z9" s="300"/>
+      <c r="AA9" s="300"/>
+      <c r="AB9" s="300"/>
+      <c r="AC9" s="300"/>
+      <c r="AD9" s="300"/>
+      <c r="AE9" s="300"/>
+      <c r="AF9" s="300"/>
+      <c r="AG9" s="300"/>
+      <c r="AH9" s="300"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11526,20 +11526,20 @@
       <c r="D10" s="113">
         <v>1</v>
       </c>
-      <c r="E10" s="249" t="s">
+      <c r="E10" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="143" t="s">
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="145"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="182"/>
       <c r="O10" s="114" t="s">
         <v>83</v>
       </c>
@@ -11555,23 +11555,23 @@
       <c r="S10" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="250" t="s">
+      <c r="T10" s="310" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="251"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="145"/>
+      <c r="U10" s="311"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="181"/>
+      <c r="AA10" s="181"/>
+      <c r="AB10" s="181"/>
+      <c r="AC10" s="181"/>
+      <c r="AD10" s="181"/>
+      <c r="AE10" s="181"/>
+      <c r="AF10" s="181"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="182"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11579,20 +11579,20 @@
       <c r="D11" s="113">
         <v>2</v>
       </c>
-      <c r="E11" s="249" t="s">
+      <c r="E11" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="143" t="s">
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="182"/>
       <c r="O11" s="115" t="s">
         <v>82</v>
       </c>
@@ -11608,23 +11608,23 @@
       <c r="S11" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="T11" s="250" t="s">
+      <c r="T11" s="310" t="s">
         <v>84</v>
       </c>
-      <c r="U11" s="251"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="144"/>
-      <c r="AE11" s="144"/>
-      <c r="AF11" s="144"/>
-      <c r="AG11" s="144"/>
-      <c r="AH11" s="145"/>
+      <c r="U11" s="311"/>
+      <c r="V11" s="180"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="181"/>
+      <c r="AA11" s="181"/>
+      <c r="AB11" s="181"/>
+      <c r="AC11" s="181"/>
+      <c r="AD11" s="181"/>
+      <c r="AE11" s="181"/>
+      <c r="AF11" s="181"/>
+      <c r="AG11" s="181"/>
+      <c r="AH11" s="182"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -11632,20 +11632,20 @@
       <c r="D12" s="113">
         <v>3</v>
       </c>
-      <c r="E12" s="249" t="s">
+      <c r="E12" s="250" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="143" t="s">
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="145"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="182"/>
       <c r="O12" s="115" t="s">
         <v>82</v>
       </c>
@@ -11661,23 +11661,23 @@
       <c r="S12" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="T12" s="250" t="s">
+      <c r="T12" s="310" t="s">
         <v>84</v>
       </c>
-      <c r="U12" s="251"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="144"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="144"/>
-      <c r="AH12" s="145"/>
+      <c r="U12" s="311"/>
+      <c r="V12" s="180"/>
+      <c r="W12" s="181"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="181"/>
+      <c r="AD12" s="181"/>
+      <c r="AE12" s="181"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="181"/>
+      <c r="AH12" s="182"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -11827,40 +11827,40 @@
       <c r="D17" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="238" t="s">
+      <c r="E17" s="315" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="239"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="306" t="s">
+      <c r="F17" s="316"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="307"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="307"/>
-      <c r="M17" s="307"/>
-      <c r="N17" s="307"/>
-      <c r="O17" s="307"/>
-      <c r="P17" s="307"/>
-      <c r="Q17" s="307"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="307"/>
-      <c r="T17" s="307"/>
-      <c r="U17" s="307"/>
-      <c r="V17" s="307"/>
-      <c r="W17" s="307"/>
-      <c r="X17" s="307"/>
-      <c r="Y17" s="307"/>
-      <c r="Z17" s="307"/>
-      <c r="AA17" s="307"/>
-      <c r="AB17" s="307"/>
-      <c r="AC17" s="307"/>
-      <c r="AD17" s="307"/>
-      <c r="AE17" s="307"/>
-      <c r="AF17" s="307"/>
-      <c r="AG17" s="307"/>
-      <c r="AH17" s="308"/>
+      <c r="I17" s="313"/>
+      <c r="J17" s="313"/>
+      <c r="K17" s="313"/>
+      <c r="L17" s="313"/>
+      <c r="M17" s="313"/>
+      <c r="N17" s="313"/>
+      <c r="O17" s="313"/>
+      <c r="P17" s="313"/>
+      <c r="Q17" s="313"/>
+      <c r="R17" s="313"/>
+      <c r="S17" s="313"/>
+      <c r="T17" s="313"/>
+      <c r="U17" s="313"/>
+      <c r="V17" s="313"/>
+      <c r="W17" s="313"/>
+      <c r="X17" s="313"/>
+      <c r="Y17" s="313"/>
+      <c r="Z17" s="313"/>
+      <c r="AA17" s="313"/>
+      <c r="AB17" s="313"/>
+      <c r="AC17" s="313"/>
+      <c r="AD17" s="313"/>
+      <c r="AE17" s="313"/>
+      <c r="AF17" s="313"/>
+      <c r="AG17" s="313"/>
+      <c r="AH17" s="314"/>
     </row>
     <row r="18" spans="1:35" s="87" customFormat="1" ht="23.25" customHeight="1">
       <c r="B18" s="30"/>
@@ -11868,40 +11868,40 @@
       <c r="D18" s="113">
         <v>1</v>
       </c>
-      <c r="E18" s="249" t="s">
+      <c r="E18" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="249" t="s">
+      <c r="F18" s="181"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="144"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="145"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="181"/>
+      <c r="AA18" s="181"/>
+      <c r="AB18" s="181"/>
+      <c r="AC18" s="181"/>
+      <c r="AD18" s="181"/>
+      <c r="AE18" s="181"/>
+      <c r="AF18" s="181"/>
+      <c r="AG18" s="181"/>
+      <c r="AH18" s="182"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1">
       <c r="B19" s="1"/>
@@ -11909,40 +11909,40 @@
       <c r="D19" s="113">
         <v>2</v>
       </c>
-      <c r="E19" s="249" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="249" t="s">
+      <c r="E19" s="250" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="181"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="145"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="181"/>
+      <c r="V19" s="181"/>
+      <c r="W19" s="181"/>
+      <c r="X19" s="181"/>
+      <c r="Y19" s="181"/>
+      <c r="Z19" s="181"/>
+      <c r="AA19" s="181"/>
+      <c r="AB19" s="181"/>
+      <c r="AC19" s="181"/>
+      <c r="AD19" s="181"/>
+      <c r="AE19" s="181"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="182"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1">
       <c r="B20" s="1"/>
@@ -11950,40 +11950,40 @@
       <c r="D20" s="113">
         <v>3</v>
       </c>
-      <c r="E20" s="249" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="249" t="s">
+      <c r="E20" s="250" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="181"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="144"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="145"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="181"/>
+      <c r="V20" s="181"/>
+      <c r="W20" s="181"/>
+      <c r="X20" s="181"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="181"/>
+      <c r="AA20" s="181"/>
+      <c r="AB20" s="181"/>
+      <c r="AC20" s="181"/>
+      <c r="AD20" s="181"/>
+      <c r="AE20" s="181"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="182"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="86"/>
@@ -12241,44 +12241,44 @@
       <c r="B28" s="86"/>
       <c r="C28" s="92"/>
       <c r="D28" s="123"/>
-      <c r="E28" s="252" t="s">
+      <c r="E28" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="252"/>
-      <c r="G28" s="253" t="s">
+      <c r="F28" s="309"/>
+      <c r="G28" s="290" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="253"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="253"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="253"/>
-      <c r="M28" s="252" t="s">
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="252"/>
-      <c r="O28" s="281" t="s">
+      <c r="N28" s="309"/>
+      <c r="O28" s="306" t="s">
         <v>79</v>
       </c>
-      <c r="P28" s="282"/>
-      <c r="Q28" s="282"/>
-      <c r="R28" s="282"/>
-      <c r="S28" s="282"/>
-      <c r="T28" s="282"/>
-      <c r="U28" s="282"/>
-      <c r="V28" s="282"/>
-      <c r="W28" s="282"/>
-      <c r="X28" s="282"/>
-      <c r="Y28" s="282"/>
-      <c r="Z28" s="282"/>
-      <c r="AA28" s="282"/>
-      <c r="AB28" s="282"/>
-      <c r="AC28" s="282"/>
-      <c r="AD28" s="282"/>
-      <c r="AE28" s="282"/>
-      <c r="AF28" s="282"/>
-      <c r="AG28" s="282"/>
-      <c r="AH28" s="283"/>
+      <c r="P28" s="307"/>
+      <c r="Q28" s="307"/>
+      <c r="R28" s="307"/>
+      <c r="S28" s="307"/>
+      <c r="T28" s="307"/>
+      <c r="U28" s="307"/>
+      <c r="V28" s="307"/>
+      <c r="W28" s="307"/>
+      <c r="X28" s="307"/>
+      <c r="Y28" s="307"/>
+      <c r="Z28" s="307"/>
+      <c r="AA28" s="307"/>
+      <c r="AB28" s="307"/>
+      <c r="AC28" s="307"/>
+      <c r="AD28" s="307"/>
+      <c r="AE28" s="307"/>
+      <c r="AF28" s="307"/>
+      <c r="AG28" s="307"/>
+      <c r="AH28" s="308"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="48"/>
@@ -12476,43 +12476,43 @@
       <c r="E34" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="284" t="s">
+      <c r="F34" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="285"/>
-      <c r="H34" s="285"/>
-      <c r="I34" s="285"/>
-      <c r="J34" s="285"/>
-      <c r="K34" s="286"/>
-      <c r="L34" s="287" t="s">
+      <c r="G34" s="270"/>
+      <c r="H34" s="270"/>
+      <c r="I34" s="270"/>
+      <c r="J34" s="270"/>
+      <c r="K34" s="271"/>
+      <c r="L34" s="272" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="285"/>
-      <c r="N34" s="285"/>
-      <c r="O34" s="285"/>
-      <c r="P34" s="285"/>
-      <c r="Q34" s="285"/>
-      <c r="R34" s="285"/>
-      <c r="S34" s="285"/>
-      <c r="T34" s="285"/>
-      <c r="U34" s="286"/>
-      <c r="V34" s="288" t="s">
+      <c r="M34" s="270"/>
+      <c r="N34" s="270"/>
+      <c r="O34" s="270"/>
+      <c r="P34" s="270"/>
+      <c r="Q34" s="270"/>
+      <c r="R34" s="270"/>
+      <c r="S34" s="270"/>
+      <c r="T34" s="270"/>
+      <c r="U34" s="271"/>
+      <c r="V34" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="W34" s="289"/>
-      <c r="X34" s="290"/>
-      <c r="Y34" s="288" t="s">
+      <c r="W34" s="274"/>
+      <c r="X34" s="275"/>
+      <c r="Y34" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="Z34" s="289"/>
-      <c r="AA34" s="289"/>
-      <c r="AB34" s="290"/>
-      <c r="AC34" s="291" t="s">
+      <c r="Z34" s="274"/>
+      <c r="AA34" s="274"/>
+      <c r="AB34" s="275"/>
+      <c r="AC34" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="AD34" s="292"/>
-      <c r="AE34" s="292"/>
-      <c r="AF34" s="293"/>
+      <c r="AD34" s="277"/>
+      <c r="AE34" s="277"/>
+      <c r="AF34" s="278"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
@@ -12525,43 +12525,43 @@
       <c r="E35" s="128">
         <v>1</v>
       </c>
-      <c r="F35" s="274" t="s">
+      <c r="F35" s="281" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="272"/>
-      <c r="H35" s="272"/>
-      <c r="I35" s="272"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="273"/>
-      <c r="L35" s="271" t="s">
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
+      <c r="K35" s="280"/>
+      <c r="L35" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="M35" s="272"/>
-      <c r="N35" s="272"/>
-      <c r="O35" s="272"/>
-      <c r="P35" s="272"/>
-      <c r="Q35" s="272"/>
-      <c r="R35" s="272"/>
-      <c r="S35" s="272"/>
-      <c r="T35" s="272"/>
-      <c r="U35" s="273"/>
-      <c r="V35" s="275" t="s">
+      <c r="M35" s="279"/>
+      <c r="N35" s="279"/>
+      <c r="O35" s="279"/>
+      <c r="P35" s="279"/>
+      <c r="Q35" s="279"/>
+      <c r="R35" s="279"/>
+      <c r="S35" s="279"/>
+      <c r="T35" s="279"/>
+      <c r="U35" s="280"/>
+      <c r="V35" s="282" t="s">
         <v>94</v>
       </c>
-      <c r="W35" s="276"/>
-      <c r="X35" s="277"/>
-      <c r="Y35" s="278" t="s">
+      <c r="W35" s="283"/>
+      <c r="X35" s="284"/>
+      <c r="Y35" s="285" t="s">
         <v>95</v>
       </c>
-      <c r="Z35" s="279"/>
-      <c r="AA35" s="279"/>
-      <c r="AB35" s="280"/>
-      <c r="AC35" s="271" t="s">
+      <c r="Z35" s="286"/>
+      <c r="AA35" s="286"/>
+      <c r="AB35" s="287"/>
+      <c r="AC35" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="AD35" s="272"/>
-      <c r="AE35" s="272"/>
-      <c r="AF35" s="273"/>
+      <c r="AD35" s="279"/>
+      <c r="AE35" s="279"/>
+      <c r="AF35" s="280"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
@@ -12647,80 +12647,80 @@
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="D38"/>
-      <c r="E38" s="309" t="s">
+      <c r="E38" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="310"/>
-      <c r="G38" s="310"/>
-      <c r="H38" s="310"/>
-      <c r="I38" s="310"/>
-      <c r="J38" s="311" t="s">
+      <c r="F38" s="248"/>
+      <c r="G38" s="248"/>
+      <c r="H38" s="248"/>
+      <c r="I38" s="248"/>
+      <c r="J38" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="K38" s="311"/>
-      <c r="L38" s="311"/>
-      <c r="M38" s="312" t="s">
+      <c r="K38" s="249"/>
+      <c r="L38" s="249"/>
+      <c r="M38" s="244" t="s">
         <v>111</v>
       </c>
-      <c r="N38" s="313"/>
-      <c r="O38" s="313"/>
-      <c r="P38" s="313"/>
-      <c r="Q38" s="313"/>
-      <c r="R38" s="313"/>
-      <c r="S38" s="314"/>
-      <c r="T38" s="312" t="s">
+      <c r="N38" s="245"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="245"/>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="245"/>
+      <c r="S38" s="246"/>
+      <c r="T38" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="U38" s="313"/>
-      <c r="V38" s="313"/>
-      <c r="W38" s="313"/>
-      <c r="X38" s="313"/>
-      <c r="Y38" s="313"/>
-      <c r="Z38" s="313"/>
-      <c r="AA38" s="313"/>
-      <c r="AB38" s="313"/>
-      <c r="AC38" s="313"/>
-      <c r="AD38" s="314"/>
+      <c r="U38" s="245"/>
+      <c r="V38" s="245"/>
+      <c r="W38" s="245"/>
+      <c r="X38" s="245"/>
+      <c r="Y38" s="245"/>
+      <c r="Z38" s="245"/>
+      <c r="AA38" s="245"/>
+      <c r="AB38" s="245"/>
+      <c r="AC38" s="245"/>
+      <c r="AD38" s="246"/>
     </row>
     <row r="39" spans="1:35" ht="11.25" customHeight="1">
       <c r="A39" s="58"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39"/>
-      <c r="E39" s="271" t="s">
+      <c r="E39" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="315"/>
-      <c r="G39" s="315"/>
-      <c r="H39" s="315"/>
-      <c r="I39" s="315"/>
-      <c r="J39" s="316" t="s">
+      <c r="F39" s="239"/>
+      <c r="G39" s="239"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="239"/>
+      <c r="J39" s="240" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="240"/>
+      <c r="L39" s="240"/>
+      <c r="M39" s="241" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="316"/>
-      <c r="L39" s="316"/>
-      <c r="M39" s="317" t="s">
-        <v>119</v>
-      </c>
-      <c r="N39" s="318"/>
-      <c r="O39" s="318"/>
-      <c r="P39" s="318"/>
-      <c r="Q39" s="318"/>
-      <c r="R39" s="318"/>
-      <c r="S39" s="319"/>
-      <c r="T39" s="317" t="s">
-        <v>119</v>
-      </c>
-      <c r="U39" s="318"/>
-      <c r="V39" s="318"/>
-      <c r="W39" s="318"/>
-      <c r="X39" s="318"/>
-      <c r="Y39" s="318"/>
-      <c r="Z39" s="318"/>
-      <c r="AA39" s="318"/>
-      <c r="AB39" s="318"/>
-      <c r="AC39" s="318"/>
-      <c r="AD39" s="319"/>
+      <c r="N39" s="242"/>
+      <c r="O39" s="242"/>
+      <c r="P39" s="242"/>
+      <c r="Q39" s="242"/>
+      <c r="R39" s="242"/>
+      <c r="S39" s="243"/>
+      <c r="T39" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="U39" s="242"/>
+      <c r="V39" s="242"/>
+      <c r="W39" s="242"/>
+      <c r="X39" s="242"/>
+      <c r="Y39" s="242"/>
+      <c r="Z39" s="242"/>
+      <c r="AA39" s="242"/>
+      <c r="AB39" s="242"/>
+      <c r="AC39" s="242"/>
+      <c r="AD39" s="243"/>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="58"/>
@@ -12801,7 +12801,7 @@
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
@@ -12954,7 +12954,7 @@
       <c r="C46" s="58"/>
       <c r="D46"/>
       <c r="E46" s="90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
@@ -12992,80 +12992,80 @@
       <c r="B47" s="58"/>
       <c r="C47" s="58"/>
       <c r="D47"/>
-      <c r="E47" s="309" t="s">
+      <c r="E47" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="310"/>
-      <c r="G47" s="310"/>
-      <c r="H47" s="310"/>
-      <c r="I47" s="310"/>
-      <c r="J47" s="311" t="s">
+      <c r="F47" s="248"/>
+      <c r="G47" s="248"/>
+      <c r="H47" s="248"/>
+      <c r="I47" s="248"/>
+      <c r="J47" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="K47" s="311"/>
-      <c r="L47" s="311"/>
-      <c r="M47" s="312" t="s">
+      <c r="K47" s="249"/>
+      <c r="L47" s="249"/>
+      <c r="M47" s="244" t="s">
         <v>111</v>
       </c>
-      <c r="N47" s="313"/>
-      <c r="O47" s="313"/>
-      <c r="P47" s="313"/>
-      <c r="Q47" s="313"/>
-      <c r="R47" s="313"/>
-      <c r="S47" s="314"/>
-      <c r="T47" s="312" t="s">
+      <c r="N47" s="245"/>
+      <c r="O47" s="245"/>
+      <c r="P47" s="245"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="245"/>
+      <c r="S47" s="246"/>
+      <c r="T47" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="U47" s="313"/>
-      <c r="V47" s="313"/>
-      <c r="W47" s="313"/>
-      <c r="X47" s="313"/>
-      <c r="Y47" s="313"/>
-      <c r="Z47" s="313"/>
-      <c r="AA47" s="313"/>
-      <c r="AB47" s="313"/>
-      <c r="AC47" s="313"/>
-      <c r="AD47" s="314"/>
+      <c r="U47" s="245"/>
+      <c r="V47" s="245"/>
+      <c r="W47" s="245"/>
+      <c r="X47" s="245"/>
+      <c r="Y47" s="245"/>
+      <c r="Z47" s="245"/>
+      <c r="AA47" s="245"/>
+      <c r="AB47" s="245"/>
+      <c r="AC47" s="245"/>
+      <c r="AD47" s="246"/>
     </row>
     <row r="48" spans="1:35" ht="11.25" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
       <c r="D48"/>
-      <c r="E48" s="271" t="s">
+      <c r="E48" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="315"/>
-      <c r="G48" s="315"/>
-      <c r="H48" s="315"/>
-      <c r="I48" s="315"/>
-      <c r="J48" s="316" t="s">
-        <v>117</v>
-      </c>
-      <c r="K48" s="316"/>
-      <c r="L48" s="316"/>
-      <c r="M48" s="317" t="s">
+      <c r="F48" s="239"/>
+      <c r="G48" s="239"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" s="240"/>
+      <c r="L48" s="240"/>
+      <c r="M48" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="N48" s="318"/>
-      <c r="O48" s="318"/>
-      <c r="P48" s="318"/>
-      <c r="Q48" s="318"/>
-      <c r="R48" s="318"/>
-      <c r="S48" s="319"/>
-      <c r="T48" s="317" t="s">
-        <v>128</v>
-      </c>
-      <c r="U48" s="318"/>
-      <c r="V48" s="318"/>
-      <c r="W48" s="318"/>
-      <c r="X48" s="318"/>
-      <c r="Y48" s="318"/>
-      <c r="Z48" s="318"/>
-      <c r="AA48" s="318"/>
-      <c r="AB48" s="318"/>
-      <c r="AC48" s="318"/>
-      <c r="AD48" s="319"/>
+      <c r="N48" s="242"/>
+      <c r="O48" s="242"/>
+      <c r="P48" s="242"/>
+      <c r="Q48" s="242"/>
+      <c r="R48" s="242"/>
+      <c r="S48" s="243"/>
+      <c r="T48" s="241" t="s">
+        <v>127</v>
+      </c>
+      <c r="U48" s="242"/>
+      <c r="V48" s="242"/>
+      <c r="W48" s="242"/>
+      <c r="X48" s="242"/>
+      <c r="Y48" s="242"/>
+      <c r="Z48" s="242"/>
+      <c r="AA48" s="242"/>
+      <c r="AB48" s="242"/>
+      <c r="AC48" s="242"/>
+      <c r="AD48" s="243"/>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="48"/>
@@ -13222,7 +13222,7 @@
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
       <c r="E53" s="129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
@@ -13334,7 +13334,7 @@
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
@@ -13411,7 +13411,7 @@
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
       <c r="E58" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
@@ -13621,7 +13621,7 @@
     <row r="64" spans="1:35">
       <c r="C64" s="30"/>
       <c r="E64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -13784,195 +13784,123 @@
     <row r="69" spans="3:34">
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
-      <c r="E69" s="247" t="s">
+      <c r="E69" s="318" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="241" t="s">
+      <c r="F69" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="G69" s="242"/>
-      <c r="H69" s="242"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="241" t="s">
+      <c r="G69" s="264"/>
+      <c r="H69" s="264"/>
+      <c r="I69" s="265"/>
+      <c r="J69" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="242"/>
-      <c r="L69" s="242"/>
-      <c r="M69" s="243"/>
-      <c r="N69" s="294" t="s">
+      <c r="K69" s="264"/>
+      <c r="L69" s="264"/>
+      <c r="M69" s="265"/>
+      <c r="N69" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="O69" s="294"/>
-      <c r="P69" s="294"/>
-      <c r="Q69" s="294"/>
-      <c r="R69" s="294"/>
-      <c r="S69" s="294"/>
-      <c r="T69" s="294"/>
-      <c r="U69" s="294"/>
-      <c r="V69" s="294"/>
-      <c r="W69" s="241" t="s">
+      <c r="O69" s="261"/>
+      <c r="P69" s="261"/>
+      <c r="Q69" s="261"/>
+      <c r="R69" s="261"/>
+      <c r="S69" s="261"/>
+      <c r="T69" s="261"/>
+      <c r="U69" s="261"/>
+      <c r="V69" s="261"/>
+      <c r="W69" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="X69" s="242"/>
-      <c r="Y69" s="242"/>
-      <c r="Z69" s="242"/>
-      <c r="AA69" s="242"/>
-      <c r="AB69" s="242"/>
-      <c r="AC69" s="243"/>
-      <c r="AD69" s="241" t="s">
+      <c r="X69" s="264"/>
+      <c r="Y69" s="264"/>
+      <c r="Z69" s="264"/>
+      <c r="AA69" s="264"/>
+      <c r="AB69" s="264"/>
+      <c r="AC69" s="265"/>
+      <c r="AD69" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="AE69" s="242"/>
-      <c r="AF69" s="242"/>
-      <c r="AG69" s="242"/>
-      <c r="AH69" s="243"/>
+      <c r="AE69" s="264"/>
+      <c r="AF69" s="264"/>
+      <c r="AG69" s="264"/>
+      <c r="AH69" s="265"/>
     </row>
     <row r="70" spans="3:34">
       <c r="C70" s="30"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="248"/>
-      <c r="F70" s="244"/>
-      <c r="G70" s="245"/>
-      <c r="H70" s="245"/>
-      <c r="I70" s="246"/>
-      <c r="J70" s="244"/>
-      <c r="K70" s="245"/>
-      <c r="L70" s="245"/>
-      <c r="M70" s="246"/>
-      <c r="N70" s="294" t="s">
+      <c r="E70" s="319"/>
+      <c r="F70" s="266"/>
+      <c r="G70" s="267"/>
+      <c r="H70" s="267"/>
+      <c r="I70" s="268"/>
+      <c r="J70" s="266"/>
+      <c r="K70" s="267"/>
+      <c r="L70" s="267"/>
+      <c r="M70" s="268"/>
+      <c r="N70" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="O70" s="294"/>
-      <c r="P70" s="294"/>
-      <c r="Q70" s="294"/>
-      <c r="R70" s="294"/>
-      <c r="S70" s="295" t="s">
+      <c r="O70" s="261"/>
+      <c r="P70" s="261"/>
+      <c r="Q70" s="261"/>
+      <c r="R70" s="261"/>
+      <c r="S70" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="T70" s="295"/>
-      <c r="U70" s="295"/>
-      <c r="V70" s="295"/>
-      <c r="W70" s="244"/>
-      <c r="X70" s="245"/>
-      <c r="Y70" s="245"/>
-      <c r="Z70" s="245"/>
-      <c r="AA70" s="245"/>
-      <c r="AB70" s="245"/>
-      <c r="AC70" s="246"/>
-      <c r="AD70" s="244"/>
-      <c r="AE70" s="245"/>
-      <c r="AF70" s="245"/>
-      <c r="AG70" s="245"/>
-      <c r="AH70" s="246"/>
+      <c r="T70" s="262"/>
+      <c r="U70" s="262"/>
+      <c r="V70" s="262"/>
+      <c r="W70" s="266"/>
+      <c r="X70" s="267"/>
+      <c r="Y70" s="267"/>
+      <c r="Z70" s="267"/>
+      <c r="AA70" s="267"/>
+      <c r="AB70" s="267"/>
+      <c r="AC70" s="268"/>
+      <c r="AD70" s="266"/>
+      <c r="AE70" s="267"/>
+      <c r="AF70" s="267"/>
+      <c r="AG70" s="267"/>
+      <c r="AH70" s="268"/>
     </row>
     <row r="71" spans="3:34">
       <c r="C71" s="30"/>
       <c r="D71" s="1"/>
       <c r="E71" s="41"/>
-      <c r="F71" s="299"/>
-      <c r="G71" s="300"/>
-      <c r="H71" s="300"/>
-      <c r="I71" s="301"/>
-      <c r="J71" s="299"/>
-      <c r="K71" s="300"/>
-      <c r="L71" s="300"/>
-      <c r="M71" s="301"/>
-      <c r="N71" s="302"/>
-      <c r="O71" s="303"/>
-      <c r="P71" s="303"/>
-      <c r="Q71" s="303"/>
-      <c r="R71" s="303"/>
-      <c r="S71" s="304"/>
-      <c r="T71" s="305"/>
-      <c r="U71" s="305"/>
-      <c r="V71" s="305"/>
-      <c r="W71" s="296"/>
-      <c r="X71" s="297"/>
-      <c r="Y71" s="297"/>
-      <c r="Z71" s="297"/>
-      <c r="AA71" s="297"/>
-      <c r="AB71" s="297"/>
-      <c r="AC71" s="298"/>
-      <c r="AD71" s="296"/>
-      <c r="AE71" s="297"/>
-      <c r="AF71" s="297"/>
-      <c r="AG71" s="297"/>
-      <c r="AH71" s="298"/>
+      <c r="F71" s="254"/>
+      <c r="G71" s="255"/>
+      <c r="H71" s="255"/>
+      <c r="I71" s="256"/>
+      <c r="J71" s="254"/>
+      <c r="K71" s="255"/>
+      <c r="L71" s="255"/>
+      <c r="M71" s="256"/>
+      <c r="N71" s="257"/>
+      <c r="O71" s="258"/>
+      <c r="P71" s="258"/>
+      <c r="Q71" s="258"/>
+      <c r="R71" s="258"/>
+      <c r="S71" s="259"/>
+      <c r="T71" s="260"/>
+      <c r="U71" s="260"/>
+      <c r="V71" s="260"/>
+      <c r="W71" s="251"/>
+      <c r="X71" s="252"/>
+      <c r="Y71" s="252"/>
+      <c r="Z71" s="252"/>
+      <c r="AA71" s="252"/>
+      <c r="AB71" s="252"/>
+      <c r="AC71" s="253"/>
+      <c r="AD71" s="251"/>
+      <c r="AE71" s="252"/>
+      <c r="AF71" s="252"/>
+      <c r="AG71" s="252"/>
+      <c r="AH71" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AD39"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M47:S47"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="T47:AD47"/>
-    <mergeCell ref="T48:AD48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N69:V69"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W69:AC70"/>
-    <mergeCell ref="AD69:AH70"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="J69:M70"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="F69:I70"/>
     <mergeCell ref="E69:E70"/>
@@ -13989,6 +13917,78 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="J69:M70"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O28:AH28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="N69:V69"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W69:AC70"/>
+    <mergeCell ref="AD69:AH70"/>
+    <mergeCell ref="AD71:AH71"/>
+    <mergeCell ref="W71:AC71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="N71:R71"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AD39"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M47:S47"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="T47:AD47"/>
+    <mergeCell ref="T48:AD48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:L47"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
